--- a/biology/Médecine/Alexandre_de_Tralles/Alexandre_de_Tralles.xlsx
+++ b/biology/Médecine/Alexandre_de_Tralles/Alexandre_de_Tralles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alexandre de Tralles (en grec : Ἀλέξανδρος ὁ Τραλλιανός) est un médecin grec du VIe siècle.
 </t>
@@ -511,9 +523,11 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Agathias (Histoire de Justinien, V, III, 4), il était le frère de l'ingénieur et architecte Anthémios de Tralles, auteur des plans de la cathédrale Sainte-Sophie de Constantinople (532), et de trois autres hommes célèbres[1]. D'après Alexandre lui-même, on sait que le père de ces cinq hommes brillants s'appelait Étienne (Stéphanos) et était lui aussi médecin. Il indique aussi qu'il a beaucoup voyagé, notamment en Occident (Espagne, Gaule, Italie), dans l'exercice de sa profession. Son installation à Rome, mentionnée par Agathias, doit se situer entre 554, fin de la guerre contre les Ostrogoths, et 580, date approximative de rédaction de l'Histoire d'Agathias. Il composa son grand traité médical à un âge avancé, alors que ses forces ne lui permettaient plus d'avoir une pratique active de la médecine.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Agathias (Histoire de Justinien, V, III, 4), il était le frère de l'ingénieur et architecte Anthémios de Tralles, auteur des plans de la cathédrale Sainte-Sophie de Constantinople (532), et de trois autres hommes célèbres. D'après Alexandre lui-même, on sait que le père de ces cinq hommes brillants s'appelait Étienne (Stéphanos) et était lui aussi médecin. Il indique aussi qu'il a beaucoup voyagé, notamment en Occident (Espagne, Gaule, Italie), dans l'exercice de sa profession. Son installation à Rome, mentionnée par Agathias, doit se situer entre 554, fin de la guerre contre les Ostrogoths, et 580, date approximative de rédaction de l'Histoire d'Agathias. Il composa son grand traité médical à un âge avancé, alors que ses forces ne lui permettaient plus d'avoir une pratique active de la médecine.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce qui reste de lui est essentiellement un grand cours de médecine en douze livres (Θεραπευτικά), dédié à un certain Cosmas, fils d'un homme auquel il avait dû une partie de sa formation. Il faut y ajouter un court traité Sur les vers intestinaux. Un autre traité Sur les fièvres est d'attribution plus douteuse. D'autre part, il mentionne lui-même un ouvrage sur les maladies des yeux qu'il avait écrit, et qui est peut-être un traité sur le même sujet qu'on possède en arabe. Jean Actuarius le cite comme auteur d'un traité sur les urines.
 Voici le contenu des douze livres du grand traité : I. les maladies de la tête (dont l'alopécie, la migraine et la « léthargie ») ; II. les maladies des yeux ; III. les maladies de la bouche (notamment les ulcères) ; IV. les troubles cardiaques ; V. les maladies des poumons (notamment les divers types de pneumonies) ; VI. la pleurésie ; VII. les problèmes d'estomac ; VIII. les maladies intestinales ; IX. les maladies du foie ; X. la dysenterie et l'hydropsie ; XI. les problèmes génitaux et urinaires ; XII. la goutte.
